--- a/Test/BO/MSE_25.xlsx
+++ b/Test/BO/MSE_25.xlsx
@@ -423,34 +423,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.1768050647021668</v>
+        <v>0.05921267681130883</v>
       </c>
       <c r="B1" t="n">
-        <v>0.08476184080463618</v>
+        <v>0.07577597894638395</v>
       </c>
       <c r="C1" t="n">
-        <v>0.07906156441155722</v>
+        <v>0.05283270557313191</v>
       </c>
       <c r="D1" t="n">
-        <v>0.1622898625394774</v>
+        <v>0.07992986929197519</v>
       </c>
       <c r="E1" t="n">
-        <v>0.1871620824244087</v>
+        <v>0.7645405520486603</v>
       </c>
       <c r="F1" t="n">
-        <v>0.3681030470273779</v>
+        <v>0.7515973063046268</v>
       </c>
       <c r="G1" t="n">
-        <v>0.197033705772645</v>
+        <v>0.07502166258565143</v>
       </c>
       <c r="H1" t="n">
-        <v>0.3938746837641675</v>
+        <v>0.07439289851179613</v>
       </c>
       <c r="I1" t="n">
-        <v>0.3438990291122243</v>
+        <v>0.2487276741718622</v>
       </c>
       <c r="J1" t="n">
-        <v>0.723949148205396</v>
+        <v>1.26117405980958</v>
       </c>
     </row>
   </sheetData>
